--- a/data/trans_orig/P79A3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Clase-trans_orig.xlsx
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4036</v>
+        <v>4025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1012471189721107</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5858478341573541</v>
+        <v>0.5841571195820878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4336</v>
+        <v>3906</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1572824843263482</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5272251062666663</v>
+        <v>0.4749284403070021</v>
       </c>
     </row>
     <row r="11">
@@ -1184,16 +1184,16 @@
         <v>6931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3874</v>
+        <v>4270</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>8224</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8427175156736517</v>
+        <v>0.8427175156736516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4710267216294441</v>
+        <v>0.5192311832378047</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>3036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8037</v>
+        <v>8734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2534630996640493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0</v>
+        <v>0.05769593186177065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.671047657860845</v>
+        <v>0.7292350502248213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8383402417656224</v>
+        <v>0.8382608930263806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1330,19 +1330,19 @@
         <v>4517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9505</v>
+        <v>9307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2935742390201413</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09095059629488111</v>
+        <v>0.09008450735635189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6178377978044984</v>
+        <v>0.6049469356539621</v>
       </c>
     </row>
     <row r="14">
@@ -1359,19 +1359,19 @@
         <v>8941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3951</v>
+        <v>3262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11977</v>
+        <v>11286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7465369003359509</v>
+        <v>0.7465369003359508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3298646564706972</v>
+        <v>0.2723860919212666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1</v>
+        <v>0.9423040681382294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1380,7 +1380,7 @@
         <v>1927</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>3408</v>
@@ -1389,7 +1389,7 @@
         <v>0.5654340877693125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1616597582343777</v>
+        <v>0.1632644077867436</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1401,19 +1401,19 @@
         <v>10868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5880</v>
+        <v>6078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13986</v>
+        <v>13999</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7064257609798585</v>
+        <v>0.7064257609798587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3821622021955017</v>
+        <v>0.3950530643460381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.909049403705119</v>
+        <v>0.9099154926436482</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>5479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2670</v>
+        <v>2589</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7683</v>
+        <v>7626</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6281052345321869</v>
+        <v>0.628105234532187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3060302671154145</v>
+        <v>0.2968173149220483</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8808217603604535</v>
+        <v>0.8742861478689339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1539,19 +1539,19 @@
         <v>5479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2344</v>
+        <v>2501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8759</v>
+        <v>8710</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5100305597898315</v>
+        <v>0.5100305597898317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2182086246736407</v>
+        <v>0.2328186216454274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8153557151968708</v>
+        <v>0.8108499329411978</v>
       </c>
     </row>
     <row r="17">
@@ -1581,19 +1581,19 @@
         <v>3244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1040</v>
+        <v>1097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6053</v>
+        <v>6134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3718947654678132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1191782396395464</v>
+        <v>0.1257138521310662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6939697328845854</v>
+        <v>0.7031826850779517</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1602,19 +1602,19 @@
         <v>5263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1983</v>
+        <v>2032</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8398</v>
+        <v>8241</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4899694402101683</v>
+        <v>0.4899694402101685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1846442848031295</v>
+        <v>0.1891500670588023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7817913753263593</v>
+        <v>0.7671813783545728</v>
       </c>
     </row>
     <row r="18">
@@ -1715,7 +1715,7 @@
         <v>2153</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>2857</v>
@@ -1724,7 +1724,7 @@
         <v>0.7535790504004399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1756706748942001</v>
+        <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1736,7 +1736,7 @@
         <v>2153</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>2857</v>
@@ -1745,7 +1745,7 @@
         <v>0.7535790504004399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1756706748942001</v>
+        <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2355</v>
+        <v>2857</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2464209495995602</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8243293251058211</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2355</v>
+        <v>2857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2464209495995602</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8243293251058211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1887,19 +1887,19 @@
         <v>4669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1535</v>
+        <v>1633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10018</v>
+        <v>10821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2139738036525314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07033241504278699</v>
+        <v>0.07482212417897365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4591008278890056</v>
+        <v>0.4958546415917598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -1908,19 +1908,19 @@
         <v>10419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -1929,19 +1929,19 @@
         <v>15088</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9276</v>
+        <v>8808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21822</v>
+        <v>21893</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3814345698966345</v>
+        <v>0.3814345698966346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2345114507596592</v>
+        <v>0.2226789958135892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5516849738102632</v>
+        <v>0.5534666115925143</v>
       </c>
     </row>
     <row r="23">
@@ -1958,19 +1958,19 @@
         <v>17153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11804</v>
+        <v>11001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20287</v>
+        <v>20189</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7860261963474687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5408991721109943</v>
+        <v>0.5041453584082403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9296675849572129</v>
+        <v>0.9251778758210263</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -1979,19 +1979,19 @@
         <v>7315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2000,19 +2000,19 @@
         <v>24468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17734</v>
+        <v>17663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30280</v>
+        <v>30748</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6185654301033654</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4483150261897365</v>
+        <v>0.4465333884074855</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7654885492403408</v>
+        <v>0.7773210041864108</v>
       </c>
     </row>
     <row r="24">
